--- a/mats/02.rys.xlsx
+++ b/mats/02.rys.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="182">
   <si>
     <t>Identyfikacja</t>
   </si>
@@ -1992,56 +1992,140 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2055,26 +2139,29 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2085,107 +2172,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -4625,7 +4625,7 @@
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="97" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -4642,7 +4642,7 @@
       <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="76"/>
+      <c r="F5" s="97"/>
       <c r="I5" s="7" t="s">
         <v>5</v>
       </c>
@@ -4680,24 +4680,24 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12"/>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="75" t="s">
+      <c r="I12" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="77" t="s">
+      <c r="K12" s="96" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="D13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="K13" s="77"/>
+      <c r="D13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="K13" s="96"/>
     </row>
     <row r="14" spans="2:11" ht="13">
-      <c r="D14" s="75"/>
-      <c r="I14" s="75"/>
+      <c r="D14" s="99"/>
+      <c r="I14" s="99"/>
       <c r="K14" s="8" t="s">
         <v>13</v>
       </c>
@@ -4718,7 +4718,7 @@
       <c r="D16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="76" t="s">
+      <c r="F16" s="97" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="7" t="s">
@@ -4730,7 +4730,7 @@
       <c r="D17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="76"/>
+      <c r="F17" s="97"/>
       <c r="I17" s="10" t="s">
         <v>16</v>
       </c>
@@ -4742,27 +4742,27 @@
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="D22" s="78" t="s">
+      <c r="D22" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="75" t="s">
+      <c r="F22" s="99" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="78"/>
-      <c r="F23" s="75"/>
+      <c r="D23" s="98"/>
+      <c r="F23" s="99"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="75"/>
+      <c r="B24" s="99"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="78"/>
+      <c r="D24" s="98"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="75"/>
-      <c r="I24" s="76" t="s">
+      <c r="F24" s="99"/>
+      <c r="I24" s="97" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4776,7 +4776,7 @@
       <c r="F25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="76"/>
+      <c r="I25" s="97"/>
     </row>
     <row r="26" spans="2:9" ht="13">
       <c r="B26" s="10" t="s">
@@ -4797,15 +4797,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="I12:I14"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="D22:D24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="I24:I25"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="I12:I14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <drawing r:id="rId1"/>
@@ -5010,21 +5010,21 @@
       <c r="H3" s="23">
         <v>1</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="82"/>
+      <c r="J3" s="100"/>
       <c r="K3" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="82" t="s">
+      <c r="L3" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="O3" s="82" t="s">
+      <c r="M3" s="100"/>
+      <c r="O3" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="82"/>
+      <c r="P3" s="100"/>
       <c r="Q3" s="25" t="s">
         <v>46</v>
       </c>
@@ -5035,21 +5035,21 @@
       <c r="G4" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="83"/>
+      <c r="J4" s="101"/>
       <c r="K4" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="83" t="s">
+      <c r="L4" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="83"/>
-      <c r="O4" s="83" t="s">
+      <c r="M4" s="101"/>
+      <c r="O4" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="83"/>
+      <c r="P4" s="101"/>
       <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="2:18" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1">
@@ -5071,10 +5071,10 @@
     </row>
     <row r="6" spans="2:18" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="B6" s="21"/>
-      <c r="F6" s="89" t="s">
+      <c r="F6" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="89"/>
+      <c r="G6" s="102"/>
       <c r="I6" s="21"/>
       <c r="J6" s="23" t="s">
         <v>55</v>
@@ -5094,40 +5094,40 @@
       <c r="B7" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="88" t="s">
+      <c r="F7" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="88"/>
-      <c r="L7" s="89" t="s">
+      <c r="G7" s="103"/>
+      <c r="L7" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="89"/>
-      <c r="P7" s="90" t="s">
+      <c r="M7" s="102"/>
+      <c r="P7" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="Q7" s="90"/>
+      <c r="Q7" s="104"/>
       <c r="R7" s="26"/>
     </row>
     <row r="8" spans="2:18" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="89"/>
-      <c r="F8" s="80" t="s">
+      <c r="C8" s="102"/>
+      <c r="F8" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="80"/>
-      <c r="L8" s="91" t="s">
+      <c r="G8" s="105"/>
+      <c r="L8" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="91"/>
+      <c r="M8" s="106"/>
       <c r="Q8" s="21"/>
     </row>
     <row r="9" spans="2:18" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="84"/>
+      <c r="C9" s="107"/>
       <c r="F9" s="21"/>
       <c r="G9" s="33" t="s">
         <v>46</v>
@@ -5136,10 +5136,10 @@
       <c r="Q9" s="21"/>
     </row>
     <row r="10" spans="2:18" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="85"/>
+      <c r="C10" s="108"/>
       <c r="F10" s="21"/>
       <c r="G10" s="34" t="s">
         <v>63</v>
@@ -5147,10 +5147,10 @@
       <c r="H10" s="35">
         <v>1</v>
       </c>
-      <c r="I10" s="82" t="s">
+      <c r="I10" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="82"/>
+      <c r="J10" s="100"/>
       <c r="K10" s="36">
         <v>1</v>
       </c>
@@ -5161,10 +5161,10 @@
       <c r="N10" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="86" t="s">
+      <c r="O10" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="86"/>
+      <c r="P10" s="109"/>
       <c r="Q10" s="38" t="s">
         <v>46</v>
       </c>
@@ -5173,32 +5173,32 @@
       <c r="B11" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="87" t="s">
+      <c r="I11" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="87"/>
-      <c r="O11" s="88" t="s">
+      <c r="J11" s="110"/>
+      <c r="O11" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="P11" s="88"/>
+      <c r="P11" s="103"/>
     </row>
     <row r="12" spans="2:18" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="B12" s="21"/>
-      <c r="I12" s="79" t="s">
+      <c r="I12" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="79"/>
-      <c r="O12" s="80" t="s">
+      <c r="J12" s="111"/>
+      <c r="O12" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="80"/>
+      <c r="P12" s="105"/>
     </row>
     <row r="13" spans="2:18" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="B13" s="21"/>
-      <c r="I13" s="81" t="s">
+      <c r="I13" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="81"/>
+      <c r="J13" s="112"/>
     </row>
     <row r="14" spans="2:18" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="B14" s="21"/>
@@ -5219,10 +5219,10 @@
       <c r="E16" s="20">
         <v>1</v>
       </c>
-      <c r="F16" s="82" t="s">
+      <c r="F16" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="82"/>
+      <c r="G16" s="100"/>
       <c r="H16" s="20" t="s">
         <v>46</v>
       </c>
@@ -5231,10 +5231,10 @@
       </c>
     </row>
     <row r="17" spans="6:16" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="F17" s="83" t="s">
+      <c r="F17" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="83"/>
+      <c r="G17" s="101"/>
     </row>
     <row r="18" spans="6:16" s="2" customFormat="1" ht="20" customHeight="1"/>
     <row r="19" spans="6:16" s="2" customFormat="1" ht="20" customHeight="1"/>
@@ -5252,12 +5252,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="O11:P11"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="L7:M7"/>
@@ -5265,17 +5270,12 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5299,13 +5299,13 @@
   <sheetData>
     <row r="4" spans="4:8" ht="13" thickBot="1"/>
     <row r="5" spans="4:8" ht="13.5" thickBot="1">
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
     </row>
     <row r="6" spans="4:8">
       <c r="D6" s="40" t="s">
@@ -5317,10 +5317,10 @@
       <c r="F6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="102" t="s">
+      <c r="G6" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="102"/>
+      <c r="H6" s="113"/>
     </row>
     <row r="7" spans="4:8">
       <c r="D7" s="42" t="s">
@@ -5332,10 +5332,10 @@
       <c r="F7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="97" t="s">
+      <c r="G7" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="97"/>
+      <c r="H7" s="115"/>
     </row>
     <row r="8" spans="4:8" ht="13" thickBot="1">
       <c r="D8" s="43">
@@ -5347,20 +5347,20 @@
       <c r="F8" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="96" t="s">
+      <c r="G8" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="96"/>
+      <c r="H8" s="116"/>
     </row>
     <row r="11" spans="4:8" ht="13" thickBot="1"/>
     <row r="12" spans="4:8" ht="13.5" thickBot="1">
-      <c r="D12" s="101" t="s">
+      <c r="D12" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
     </row>
     <row r="13" spans="4:8">
       <c r="D13" s="45" t="s">
@@ -5369,11 +5369,11 @@
       <c r="E13" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="102" t="s">
+      <c r="F13" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
     </row>
     <row r="14" spans="4:8">
       <c r="D14" s="42" t="s">
@@ -5382,11 +5382,11 @@
       <c r="E14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="97">
+      <c r="F14" s="115">
         <v>1</v>
       </c>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
     </row>
     <row r="15" spans="4:8" ht="13" thickBot="1">
       <c r="D15" s="43">
@@ -5395,21 +5395,21 @@
       <c r="E15" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="96">
+      <c r="F15" s="116">
         <v>3</v>
       </c>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
     </row>
     <row r="17" spans="4:13" ht="13" thickBot="1"/>
     <row r="18" spans="4:13" ht="13">
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
     </row>
     <row r="19" spans="4:13">
       <c r="D19" s="40" t="s">
@@ -5465,22 +5465,22 @@
     </row>
     <row r="23" spans="4:13" ht="13" thickBot="1"/>
     <row r="24" spans="4:13" ht="13">
-      <c r="D24" s="82" t="s">
+      <c r="D24" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
     </row>
     <row r="25" spans="4:13">
       <c r="D25" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="98" t="s">
+      <c r="E25" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="98"/>
+      <c r="F25" s="117"/>
       <c r="G25" s="51" t="s">
         <v>88</v>
       </c>
@@ -5490,37 +5490,37 @@
       <c r="D26" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="99" t="s">
+      <c r="E26" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="99"/>
-      <c r="G26" s="100" t="s">
+      <c r="F26" s="118"/>
+      <c r="G26" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="H26" s="100"/>
+      <c r="H26" s="119"/>
     </row>
     <row r="27" spans="4:13" ht="13" thickBot="1">
       <c r="D27" s="43">
         <v>1234</v>
       </c>
-      <c r="E27" s="92" t="s">
+      <c r="E27" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="92"/>
-      <c r="G27" s="93" t="s">
+      <c r="F27" s="120"/>
+      <c r="G27" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="H27" s="93"/>
+      <c r="H27" s="121"/>
     </row>
     <row r="29" spans="4:13" ht="13" thickBot="1"/>
     <row r="30" spans="4:13" ht="13">
-      <c r="D30" s="82" t="s">
+      <c r="D30" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
     </row>
     <row r="31" spans="4:13">
       <c r="D31" s="40" t="s">
@@ -5532,10 +5532,10 @@
       <c r="F31" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="94" t="s">
+      <c r="G31" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="H31" s="94"/>
+      <c r="H31" s="122"/>
       <c r="M31" t="s">
         <v>94</v>
       </c>
@@ -5550,10 +5550,10 @@
       <c r="F32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="95">
+      <c r="G32" s="123">
         <v>45275</v>
       </c>
-      <c r="H32" s="95"/>
+      <c r="H32" s="123"/>
     </row>
     <row r="33" spans="4:8" ht="13" thickBot="1">
       <c r="D33" s="43">
@@ -5565,19 +5565,13 @@
       <c r="F33" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="96">
+      <c r="G33" s="116">
         <v>230</v>
       </c>
-      <c r="H33" s="96"/>
+      <c r="H33" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="D12:H12"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F15:H15"/>
@@ -5591,6 +5585,12 @@
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G32:H32"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="D12:H12"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5660,28 +5660,28 @@
   <sheetData>
     <row r="1" spans="2:16" ht="13" thickBot="1"/>
     <row r="2" spans="2:16" ht="13" thickBot="1">
-      <c r="E2" s="112" t="s">
+      <c r="E2" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="2:16" ht="13" thickBot="1">
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
     </row>
     <row r="4" spans="2:16" ht="13.5" thickBot="1">
-      <c r="M4" s="101" t="s">
+      <c r="M4" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="101"/>
+      <c r="N4" s="114"/>
     </row>
     <row r="5" spans="2:16" ht="13" thickBot="1">
-      <c r="M5" s="113" t="s">
+      <c r="M5" s="125" t="s">
         <v>98</v>
       </c>
-      <c r="N5" s="113"/>
+      <c r="N5" s="125"/>
       <c r="O5" s="51"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" thickBot="1">
@@ -5694,25 +5694,25 @@
       <c r="D6" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="111" t="s">
+      <c r="E6" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
       <c r="H6" s="60">
         <v>1</v>
       </c>
       <c r="I6" s="61">
         <v>1</v>
       </c>
-      <c r="J6" s="89" t="s">
+      <c r="J6" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="89"/>
-      <c r="M6" s="107" t="s">
+      <c r="K6" s="102"/>
+      <c r="M6" s="127" t="s">
         <v>101</v>
       </c>
-      <c r="N6" s="107"/>
+      <c r="N6" s="127"/>
       <c r="O6" s="51"/>
     </row>
     <row r="7" spans="2:16" ht="13.5" thickBot="1">
@@ -5722,37 +5722,37 @@
       <c r="D7" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="106" t="s">
+      <c r="E7" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="J7" s="88" t="s">
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="J7" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="88"/>
-      <c r="M7" s="79" t="s">
+      <c r="K7" s="103"/>
+      <c r="M7" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="79"/>
+      <c r="N7" s="111"/>
     </row>
     <row r="8" spans="2:16" ht="13.5" thickBot="1">
       <c r="B8" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="108" t="s">
+      <c r="E8" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="J8" s="80" t="s">
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="J8" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="80"/>
-      <c r="M8" s="81" t="s">
+      <c r="K8" s="105"/>
+      <c r="M8" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="81"/>
+      <c r="N8" s="112"/>
     </row>
     <row r="9" spans="2:16" ht="13.5" thickBot="1">
       <c r="B9" s="62" t="s">
@@ -5763,63 +5763,63 @@
       <c r="B10" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="N10" s="110" t="s">
+      <c r="N10" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="O10" s="110"/>
+      <c r="O10" s="130"/>
     </row>
     <row r="11" spans="2:16" ht="13.5" thickBot="1">
       <c r="B11" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="N11" s="107" t="s">
+      <c r="N11" s="127" t="s">
         <v>98</v>
       </c>
-      <c r="O11" s="107"/>
+      <c r="O11" s="127"/>
       <c r="P11" s="51"/>
     </row>
     <row r="12" spans="2:16" ht="13.5" thickBot="1">
       <c r="D12" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="111" t="s">
+      <c r="E12" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
       <c r="H12" s="60">
         <v>1</v>
       </c>
       <c r="I12" s="66">
         <v>1</v>
       </c>
-      <c r="J12" s="86" t="s">
+      <c r="J12" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="86"/>
-      <c r="N12" s="107" t="s">
+      <c r="K12" s="109"/>
+      <c r="N12" s="127" t="s">
         <v>101</v>
       </c>
-      <c r="O12" s="107"/>
+      <c r="O12" s="127"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="2:16" ht="13" thickBot="1">
       <c r="D13" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="106" t="s">
+      <c r="E13" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="J13" s="88" t="s">
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="J13" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="88"/>
-      <c r="N13" s="107" t="s">
+      <c r="K13" s="103"/>
+      <c r="N13" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="O13" s="107"/>
+      <c r="O13" s="127"/>
       <c r="P13" s="51"/>
     </row>
     <row r="14" spans="2:16" ht="13.5" thickBot="1">
@@ -5837,28 +5837,28 @@
         <v>101</v>
       </c>
       <c r="G14" s="47"/>
-      <c r="J14" s="80" t="s">
+      <c r="J14" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="80"/>
-      <c r="N14" s="79" t="s">
+      <c r="K14" s="105"/>
+      <c r="N14" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="O14" s="79"/>
+      <c r="O14" s="111"/>
     </row>
     <row r="15" spans="2:16" ht="13.5" thickBot="1">
       <c r="B15" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="108" t="s">
+      <c r="E15" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="N15" s="81" t="s">
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="N15" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="O15" s="81"/>
+      <c r="O15" s="112"/>
     </row>
     <row r="16" spans="2:16" ht="13.5" thickBot="1">
       <c r="B16" s="62" t="s">
@@ -5869,10 +5869,10 @@
       <c r="B17" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="M17" s="110" t="s">
+      <c r="M17" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="110"/>
+      <c r="N17" s="130"/>
     </row>
     <row r="18" spans="2:15" ht="13.5" thickBot="1">
       <c r="B18" s="64" t="s">
@@ -5881,25 +5881,25 @@
       <c r="D18" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="111" t="s">
+      <c r="E18" s="126" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
       <c r="H18" s="60">
         <v>1</v>
       </c>
       <c r="I18" s="61">
         <v>1</v>
       </c>
-      <c r="J18" s="89" t="s">
+      <c r="J18" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="89"/>
-      <c r="M18" s="107" t="s">
+      <c r="K18" s="102"/>
+      <c r="M18" s="127" t="s">
         <v>98</v>
       </c>
-      <c r="N18" s="107"/>
+      <c r="N18" s="127"/>
       <c r="O18" s="51"/>
     </row>
     <row r="19" spans="2:15" ht="13.5" thickBot="1">
@@ -5909,31 +5909,31 @@
       <c r="D19" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="106" t="s">
+      <c r="E19" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="J19" s="91" t="s">
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="J19" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="K19" s="91"/>
-      <c r="M19" s="107" t="s">
+      <c r="K19" s="106"/>
+      <c r="M19" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="N19" s="107"/>
+      <c r="N19" s="127"/>
       <c r="O19" s="51"/>
     </row>
     <row r="20" spans="2:15" ht="13" thickBot="1">
-      <c r="E20" s="108" t="s">
+      <c r="E20" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="M20" s="81" t="s">
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="M20" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="N20" s="81"/>
+      <c r="N20" s="112"/>
     </row>
     <row r="21" spans="2:15" ht="13" thickBot="1"/>
     <row r="22" spans="2:15" ht="13.5" thickBot="1">
@@ -5956,10 +5956,10 @@
       <c r="E24" s="67">
         <v>1</v>
       </c>
-      <c r="J24" s="109" t="s">
+      <c r="J24" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="K24" s="109"/>
+      <c r="K24" s="131"/>
       <c r="L24" s="68"/>
       <c r="M24" s="68"/>
       <c r="N24" s="68"/>
@@ -5973,17 +5973,17 @@
       <c r="I25" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="J25" s="103" t="s">
+      <c r="J25" s="132" t="s">
         <v>98</v>
       </c>
-      <c r="K25" s="103"/>
+      <c r="K25" s="132"/>
     </row>
     <row r="26" spans="2:15" ht="13" thickBot="1">
       <c r="E26" s="69"/>
-      <c r="J26" s="104" t="s">
+      <c r="J26" s="133" t="s">
         <v>114</v>
       </c>
-      <c r="K26" s="104"/>
+      <c r="K26" s="133"/>
     </row>
     <row r="27" spans="2:15" ht="13.5" thickBot="1">
       <c r="B27" s="56" t="s">
@@ -5995,20 +5995,20 @@
       <c r="E27" s="72">
         <v>1</v>
       </c>
-      <c r="J27" s="104" t="s">
+      <c r="J27" s="133" t="s">
         <v>116</v>
       </c>
-      <c r="K27" s="104"/>
+      <c r="K27" s="133"/>
     </row>
     <row r="28" spans="2:15" ht="13.5" thickBot="1">
       <c r="B28" s="62" t="s">
         <v>114</v>
       </c>
       <c r="E28" s="69"/>
-      <c r="J28" s="105" t="s">
+      <c r="J28" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="K28" s="105"/>
+      <c r="K28" s="134"/>
     </row>
     <row r="29" spans="2:15" ht="13">
       <c r="B29" s="62" t="s">
@@ -6052,12 +6052,24 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="E2:G3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M18:N18"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="N13:O13"/>
@@ -6072,24 +6084,12 @@
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:N6"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
 </worksheet>
@@ -6100,7 +6100,7 @@
   <dimension ref="B2:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -6120,40 +6120,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="137" t="s">
         <v>124</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="129" t="s">
+      <c r="D2" s="138" t="s">
         <v>167</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="128" t="s">
+      <c r="F2" s="137" t="s">
         <v>166</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="135" t="s">
+      <c r="I2" s="139" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="128"/>
+      <c r="B3" s="137"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="129"/>
+      <c r="D3" s="138"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="128"/>
+      <c r="F3" s="137"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
     </row>
     <row r="4" spans="2:13" ht="13" thickBot="1">
       <c r="B4" s="1" t="s">
@@ -6167,36 +6167,36 @@
       <c r="D5" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="120" t="s">
+      <c r="F5" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="I5" s="124" t="s">
+      <c r="I5" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="K5" s="124" t="s">
+      <c r="K5" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="M5" s="139" t="s">
+      <c r="M5" s="95" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="13">
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="90" t="s">
         <v>125</v>
       </c>
       <c r="D6" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="116" t="s">
+      <c r="F6" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="I6" s="121" t="s">
+      <c r="I6" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="K6" s="132" t="s">
+      <c r="K6" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="M6" s="136" t="s">
+      <c r="M6" s="92" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6205,16 +6205,16 @@
       <c r="D7" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="116" t="s">
+      <c r="F7" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="I7" s="121" t="s">
+      <c r="I7" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="K7" s="132" t="s">
+      <c r="K7" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="136" t="s">
+      <c r="M7" s="92" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6222,16 +6222,16 @@
       <c r="D8" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="118" t="s">
+      <c r="F8" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="I8" s="131" t="s">
+      <c r="I8" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="K8" s="122" t="s">
+      <c r="K8" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="M8" s="136" t="s">
+      <c r="M8" s="92" t="s">
         <v>132</v>
       </c>
     </row>
@@ -6239,46 +6239,48 @@
       <c r="D9" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="118" t="s">
+      <c r="F9" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="I9" s="131" t="s">
+      <c r="I9" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="K9" s="123"/>
-      <c r="M9" s="137" t="s">
+      <c r="K9" s="82"/>
+      <c r="M9" s="93" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="13.5" thickBot="1">
-      <c r="D10" s="65"/>
-      <c r="F10" s="119" t="s">
+      <c r="D10" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="I10" s="122" t="s">
+      <c r="I10" s="81" t="s">
         <v>147</v>
       </c>
       <c r="K10" s="55"/>
-      <c r="M10" s="137" t="s">
+      <c r="M10" s="93" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="13" thickBot="1">
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="135" t="s">
         <v>129</v>
       </c>
-      <c r="I11" s="122" t="s">
+      <c r="I11" s="81" t="s">
         <v>148</v>
       </c>
       <c r="K11" s="55"/>
-      <c r="M11" s="138"/>
+      <c r="M11" s="94"/>
     </row>
     <row r="12" spans="2:13" ht="13" thickBot="1">
-      <c r="B12" s="115"/>
-      <c r="I12" s="122" t="s">
+      <c r="B12" s="136"/>
+      <c r="I12" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="K12" s="124" t="s">
+      <c r="K12" s="83" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6289,53 +6291,53 @@
       <c r="D13" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="I13" s="122" t="s">
+      <c r="I13" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="K13" s="132" t="s">
+      <c r="K13" s="89" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="13">
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="91" t="s">
         <v>125</v>
       </c>
       <c r="D14" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="F14" s="116" t="s">
+      <c r="F14" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="I14" s="122" t="s">
+      <c r="I14" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="K14" s="132" t="s">
+      <c r="K14" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="M14" s="139" t="s">
+      <c r="M14" s="95" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="91" t="s">
         <v>127</v>
       </c>
       <c r="D15" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="F15" s="117" t="s">
+      <c r="F15" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="I15" s="122" t="s">
+      <c r="I15" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="K15" s="122" t="s">
+      <c r="K15" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="M15" s="136" t="s">
+      <c r="M15" s="92" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6344,71 +6346,71 @@
       <c r="D16" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="I16" s="122" t="s">
+      <c r="I16" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="K16" s="122" t="s">
+      <c r="K16" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="M16" s="136" t="s">
+      <c r="M16" s="92" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.5" thickBot="1">
       <c r="D17" s="65"/>
-      <c r="I17" s="122" t="s">
+      <c r="I17" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="K17" s="122" t="s">
+      <c r="K17" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="M17" s="136" t="s">
+      <c r="M17" s="92" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="F18" s="120" t="s">
+      <c r="F18" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="I18" s="122" t="s">
+      <c r="I18" s="81" t="s">
         <v>155</v>
       </c>
-      <c r="K18" s="122" t="s">
+      <c r="K18" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="M18" s="137" t="s">
+      <c r="M18" s="93" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="13">
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="135" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="116" t="s">
+      <c r="F19" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="I19" s="122" t="s">
+      <c r="I19" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="K19" s="122" t="s">
+      <c r="K19" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="M19" s="137" t="s">
+      <c r="M19" s="93" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B20" s="115"/>
-      <c r="F20" s="117" t="s">
+      <c r="B20" s="136"/>
+      <c r="F20" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="I20" s="122" t="s">
+      <c r="I20" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="K20" s="122" t="s">
+      <c r="K20" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="M20" s="138"/>
+      <c r="M20" s="94"/>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="59" t="s">
@@ -6417,103 +6419,103 @@
       <c r="D21" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="I21" s="122" t="s">
+      <c r="I21" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="K21" s="122" t="s">
+      <c r="K21" s="81" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B22" s="134" t="s">
+      <c r="B22" s="91" t="s">
         <v>125</v>
       </c>
       <c r="D22" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="I22" s="123" t="s">
+      <c r="I22" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="K22" s="122" t="s">
+      <c r="K22" s="81" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="13">
-      <c r="B23" s="134" t="s">
+      <c r="B23" s="91" t="s">
         <v>127</v>
       </c>
       <c r="D23" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="120" t="s">
+      <c r="F23" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="K23" s="126" t="s">
+      <c r="K23" s="85" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B24" s="134" t="s">
+      <c r="B24" s="91" t="s">
         <v>132</v>
       </c>
       <c r="D24" s="65"/>
-      <c r="F24" s="116" t="s">
+      <c r="F24" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="K24" s="123"/>
+      <c r="K24" s="82"/>
     </row>
     <row r="25" spans="2:13" ht="13.5" thickBot="1">
       <c r="B25" s="73"/>
-      <c r="F25" s="117" t="s">
+      <c r="F25" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="I25" s="124" t="s">
+      <c r="I25" s="83" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="13">
-      <c r="I26" s="125" t="s">
+      <c r="I26" s="84" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="13">
-      <c r="I27" s="125" t="s">
+      <c r="I27" s="84" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="13">
-      <c r="I28" s="130" t="s">
+      <c r="I28" s="87" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="I29" s="126" t="s">
+      <c r="I29" s="85" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="I30" s="126" t="s">
+      <c r="I30" s="85" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="31" spans="2:13">
-      <c r="I31" s="126" t="s">
+      <c r="I31" s="85" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="13" thickBot="1">
-      <c r="I32" s="127" t="s">
+      <c r="I32" s="86" t="s">
         <v>163</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="I2:M3"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="I2:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/mats/02.rys.xlsx
+++ b/mats/02.rys.xlsx
@@ -2469,7 +2469,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>605520</xdr:colOff>
+      <xdr:colOff>605160</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
@@ -2481,7 +2481,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1848600" y="752040"/>
-          <a:ext cx="623160" cy="360"/>
+          <a:ext cx="622800" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2525,7 +2525,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>747720</xdr:colOff>
+      <xdr:colOff>747360</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
@@ -2537,7 +2537,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3979440" y="752400"/>
-          <a:ext cx="781920" cy="360"/>
+          <a:ext cx="781560" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2581,7 +2581,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>628920</xdr:colOff>
+      <xdr:colOff>628560</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
@@ -2593,7 +2593,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2220480" y="2412360"/>
-          <a:ext cx="274680" cy="360"/>
+          <a:ext cx="274320" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2637,7 +2637,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>343080</xdr:colOff>
+      <xdr:colOff>342720</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
@@ -2649,7 +2649,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1844280" y="1020960"/>
-          <a:ext cx="365040" cy="360"/>
+          <a:ext cx="364680" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2693,9 +2693,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>343080</xdr:colOff>
+      <xdr:colOff>342720</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2704,8 +2704,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2207160" y="991080"/>
-          <a:ext cx="1080" cy="1423800"/>
+          <a:off x="2207880" y="991800"/>
+          <a:ext cx="720" cy="1423440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2749,7 +2749,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>767520</xdr:colOff>
+      <xdr:colOff>767160</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
@@ -2761,7 +2761,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3970800" y="2776320"/>
-          <a:ext cx="810360" cy="360"/>
+          <a:ext cx="810000" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2799,13 +2799,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1460520</xdr:colOff>
+      <xdr:colOff>1459800</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>64440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>226800</xdr:colOff>
+      <xdr:colOff>225720</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
@@ -2816,8 +2816,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3980520" y="2412360"/>
-          <a:ext cx="259920" cy="360"/>
+          <a:off x="3979800" y="2412360"/>
+          <a:ext cx="259560" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2861,7 +2861,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>756360</xdr:colOff>
+      <xdr:colOff>756000</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
@@ -2873,7 +2873,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="4250520" y="1020960"/>
-          <a:ext cx="519480" cy="360"/>
+          <a:ext cx="519120" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2917,9 +2917,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>240120</xdr:colOff>
+      <xdr:colOff>239760</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2928,8 +2928,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4252320" y="991080"/>
-          <a:ext cx="1080" cy="1423800"/>
+          <a:off x="4252680" y="991800"/>
+          <a:ext cx="720" cy="1423440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2973,7 +2973,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>705600</xdr:colOff>
+      <xdr:colOff>705240</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
@@ -2984,8 +2984,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8576280" y="752400"/>
-          <a:ext cx="783000" cy="360"/>
+          <a:off x="8577720" y="752400"/>
+          <a:ext cx="782280" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3029,7 +3029,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>705600</xdr:colOff>
+      <xdr:colOff>705240</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
@@ -3040,8 +3040,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8576280" y="2196720"/>
-          <a:ext cx="783000" cy="360"/>
+          <a:off x="8577720" y="2196720"/>
+          <a:ext cx="782280" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3085,7 +3085,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>605520</xdr:colOff>
+      <xdr:colOff>605160</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>119880</xdr:rowOff>
     </xdr:to>
@@ -3097,7 +3097,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1848600" y="4080600"/>
-          <a:ext cx="623160" cy="360"/>
+          <a:ext cx="622800" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3141,7 +3141,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>747720</xdr:colOff>
+      <xdr:colOff>747360</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>119880</xdr:rowOff>
     </xdr:to>
@@ -3153,7 +3153,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3979440" y="4080600"/>
-          <a:ext cx="781920" cy="360"/>
+          <a:ext cx="781560" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3191,7 +3191,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>375480</xdr:colOff>
+      <xdr:colOff>375840</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:from>
@@ -3199,7 +3199,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>618120</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3208,8 +3208,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2241720" y="3949920"/>
-          <a:ext cx="242640" cy="116640"/>
+          <a:off x="2241720" y="3949200"/>
+          <a:ext cx="242280" cy="116280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3253,9 +3253,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>603720</xdr:colOff>
+      <xdr:colOff>603360</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3265,7 +3265,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2232360" y="4084200"/>
-          <a:ext cx="237600" cy="115200"/>
+          <a:ext cx="237240" cy="114840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3309,7 +3309,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>338400</xdr:colOff>
+      <xdr:colOff>338040</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>119880</xdr:rowOff>
     </xdr:to>
@@ -3320,7 +3320,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6038640" y="4080600"/>
+          <a:off x="6039720" y="4080600"/>
           <a:ext cx="862200" cy="360"/>
         </a:xfrm>
         <a:custGeom>
@@ -3370,7 +3370,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.18"/>
@@ -3591,7 +3591,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.38"/>
   </cols>
@@ -3744,7 +3744,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.64"/>
@@ -4077,7 +4077,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.27"/>
@@ -4399,7 +4399,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.54"/>
@@ -4447,7 +4447,7 @@
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.64"/>
@@ -4907,10 +4907,10 @@
   <dimension ref="B1:M32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.84"/>
@@ -5092,7 +5092,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="84" t="s">
         <v>148</v>
       </c>
